--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nlgn1-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nlgn1-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Nrxn1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07823633333333334</v>
+        <v>0.002858666666666667</v>
       </c>
       <c r="N2">
-        <v>0.234709</v>
+        <v>0.008576</v>
       </c>
       <c r="O2">
-        <v>0.07325462794193288</v>
+        <v>0.002669495535069502</v>
       </c>
       <c r="P2">
-        <v>0.07325462794193288</v>
+        <v>0.002669495535069501</v>
       </c>
       <c r="Q2">
-        <v>0.01719128678377778</v>
+        <v>0.0006281500728888889</v>
       </c>
       <c r="R2">
-        <v>0.154721581054</v>
+        <v>0.005653350656</v>
       </c>
       <c r="S2">
-        <v>0.07325462794193288</v>
+        <v>0.002669495535069502</v>
       </c>
       <c r="T2">
-        <v>0.07325462794193288</v>
+        <v>0.002669495535069501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,34 +608,96 @@
         <v>1</v>
       </c>
       <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.07823633333333334</v>
+      </c>
+      <c r="N3">
+        <v>0.234709</v>
+      </c>
+      <c r="O3">
+        <v>0.07305907503971872</v>
+      </c>
+      <c r="P3">
+        <v>0.0730590750397187</v>
+      </c>
+      <c r="Q3">
+        <v>0.01719128678377778</v>
+      </c>
+      <c r="R3">
+        <v>0.154721581054</v>
+      </c>
+      <c r="S3">
+        <v>0.07305907503971872</v>
+      </c>
+      <c r="T3">
+        <v>0.0730590750397187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.9897689999999999</v>
-      </c>
-      <c r="N3">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.2197353333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.659206</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.989769</v>
+      </c>
+      <c r="N4">
         <v>2.969307</v>
       </c>
-      <c r="O3">
-        <v>0.9267453720580671</v>
-      </c>
-      <c r="P3">
-        <v>0.9267453720580671</v>
-      </c>
-      <c r="Q3">
+      <c r="O4">
+        <v>0.9242714294252118</v>
+      </c>
+      <c r="P4">
+        <v>0.9242714294252118</v>
+      </c>
+      <c r="Q4">
         <v>0.217487221138</v>
       </c>
-      <c r="R3">
+      <c r="R4">
         <v>1.957384990242</v>
       </c>
-      <c r="S3">
-        <v>0.9267453720580671</v>
-      </c>
-      <c r="T3">
-        <v>0.9267453720580671</v>
+      <c r="S4">
+        <v>0.9242714294252118</v>
+      </c>
+      <c r="T4">
+        <v>0.9242714294252118</v>
       </c>
     </row>
   </sheetData>
